--- a/COSTOS DE VIAJES.xlsx
+++ b/COSTOS DE VIAJES.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD00BBD-8BF0-466B-A38F-779035FED8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10515" windowHeight="3930"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>COSTOS</t>
   </si>
@@ -48,18 +63,6 @@
     <t xml:space="preserve">ESTIVA DE CARGUE </t>
   </si>
   <si>
-    <t>TUTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NESTLE CD </t>
-  </si>
-  <si>
-    <t>ROSADO</t>
-  </si>
-  <si>
-    <t>MONTECRISTI</t>
-  </si>
-  <si>
     <t>SALIDA</t>
   </si>
   <si>
@@ -124,15 +127,34 @@
   </si>
   <si>
     <t xml:space="preserve">DEPRECIACION  VEHICULO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETERGENTES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUITO </t>
+  </si>
+  <si>
+    <t>TIPO DE CARGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO DE CARGA </t>
+  </si>
+  <si>
+    <t>PALETIZADA</t>
+  </si>
+  <si>
+    <t>GRANEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -305,39 +327,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -349,6 +366,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -360,6 +379,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -408,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,9 +463,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,6 +515,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,494 +720,473 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="G1" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <f>I3*C3%</f>
-        <v>25</v>
+      <c r="D3" s="2">
+        <f>J3*C3%</f>
+        <v>0</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <f>J3*C4%</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="I3" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <f>I3*C4%</f>
-        <v>50</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <f>I3*C5%</f>
-        <v>25</v>
+      <c r="D5" s="2">
+        <f>J3*C5%</f>
+        <v>0</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2">
         <f>G15</f>
         <v>70</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>26</v>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
-        <f>I3*C8%</f>
-        <v>12.5</v>
+      <c r="D8" s="2">
+        <f>J3*C8%</f>
+        <v>0</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>23</v>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <f>SUM(D3:D8)</f>
-        <v>182.5</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="10">
-        <v>250</v>
-      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="23">
+    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="18">
         <f>D10-D9</f>
-        <v>67.5</v>
-      </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="13" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+        <v>-70</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.4</v>
       </c>
       <c r="D15" s="1">
         <v>100</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f>D15*C15</f>
         <v>40</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1.75</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f>E15*F15</f>
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="23" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="G23" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+    </row>
+    <row r="23" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="G23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="18">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3">
-        <f>I25*C25%</f>
-        <v>60</v>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2">
+        <f>J25*C25%</f>
+        <v>0</v>
       </c>
       <c r="E25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <f>J25*C26%</f>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="24">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="16">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <f>J25*C27%</f>
+        <v>30</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2">
+        <f>G40</f>
+        <v>297.5</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="16">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <f>J25*C30%</f>
+        <v>60</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2">
+        <v>60</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="7">
+        <f>SUM(D25:D31)</f>
+        <v>531.5</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="8">
+        <f>J25</f>
+        <v>600</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="18">
+        <f>D33-D32</f>
+        <v>68.5</v>
+      </c>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="38" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="E39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="3">
-        <f>I25*C26%</f>
-        <v>84.000000000000014</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="18">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3">
-        <f>I25*C27%</f>
-        <v>60</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="3">
-        <f>G40</f>
-        <v>87.5</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="3">
-        <v>50</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="F39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="18">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3">
-        <f>I25*C30%</f>
-        <v>60</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="3">
-        <v>16</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="9">
-        <f>SUM(D25:D31)</f>
-        <v>417.5</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="10">
-        <f>I25</f>
-        <v>600</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="23">
-        <f>D33-D32</f>
-        <v>182.5</v>
-      </c>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="38" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.25</v>
+      <c r="C40" s="1">
+        <v>0.17</v>
       </c>
       <c r="D40" s="1">
-        <v>200</v>
-      </c>
-      <c r="E40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="1">
         <f>D40*C40</f>
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="F40" s="1">
         <v>1.75</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="5">
         <f>E40*F40</f>
-        <v>87.5</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1161,9 +1196,9 @@
   <mergeCells count="8">
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="B38:G38"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B13:F13"/>
@@ -1174,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1186,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
